--- a/liste.xlsx
+++ b/liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASLAN\PycharmProjects\KatilimBelgesi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1657AC9-1124-43F4-99B1-257BB3D8987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590124D7-9C72-46E8-BAC9-6F45C6DEF49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2085" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Bildiri No</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Selahattin Barış ÇELEBİ</t>
-  </si>
-  <si>
-    <t>ammaraslan@gmail.com</t>
-  </si>
-  <si>
-    <t>sbariscelebi@gmail.com</t>
   </si>
   <si>
     <t>Makine Öğrenmesi Tabanlı Ses Sınıflandırılması</t>
@@ -418,7 +412,7 @@
   <dimension ref="A1:H1056"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -457,11 +451,9 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -474,11 +466,9 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2279,10 +2269,7 @@
     <row r="1056" ht="23.25" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{39549A12-9FAC-412E-8656-AB9B8728F9CC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>